--- a/data/trans_dic/P3A$personadelacasa-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P3A$personadelacasa-Clase-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.1873474057182063</v>
+        <v>0.1873474057182062</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.2205027126519797</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.15029848055874</v>
+        <v>0.1525728179562185</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1872856229893587</v>
+        <v>0.1882729989215275</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1784769922934295</v>
+        <v>0.1803534798921248</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2267150000079444</v>
+        <v>0.2259810210629279</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2592338567557472</v>
+        <v>0.2585185898126165</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.231030251504904</v>
+        <v>0.2314624451755252</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2105613578365134</v>
+        <v>0.2068617104685951</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.176765394682345</v>
+        <v>0.1733955005598507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2030888514771179</v>
+        <v>0.2037725929573594</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3028604657781895</v>
+        <v>0.2993863567224994</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2474860286588174</v>
+        <v>0.2450493525137819</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2640644322465754</v>
+        <v>0.2599132830822893</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1743530955558002</v>
+        <v>0.1768390443996878</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1734531906145675</v>
+        <v>0.164812296569818</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.181735270519702</v>
+        <v>0.1807609713139099</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2514079889361273</v>
+        <v>0.2540526904213718</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2897395311939356</v>
+        <v>0.2805204647948732</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2487571885457418</v>
+        <v>0.2454508288152307</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.2671711761286178</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2473300946001558</v>
+        <v>0.2473300946001559</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2028144539847128</v>
+        <v>0.2032442643564605</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2403696703733817</v>
+        <v>0.241912176694927</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2257326022050158</v>
+        <v>0.2271147143299383</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2643908591858125</v>
+        <v>0.2639212309723566</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2964531561327179</v>
+        <v>0.2947915319196495</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2687749008908942</v>
+        <v>0.2688426687589931</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2330382591239324</v>
+        <v>0.2365689626484533</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1772931816221467</v>
+        <v>0.1766275628120462</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2099401938112025</v>
+        <v>0.2093538103065891</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3185228981279932</v>
+        <v>0.3224590015304831</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2252739753099235</v>
+        <v>0.228146898180412</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2546870052547301</v>
+        <v>0.2562614744032986</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6989027221619617</v>
+        <v>0.7058418907969828</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2867534677113788</v>
+        <v>0.2846231207475675</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3874147777568868</v>
+        <v>0.3889165526252574</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8563803385947739</v>
+        <v>0.862751278282892</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3579659513261754</v>
+        <v>0.3551902055133814</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4621686294024614</v>
+        <v>0.4605317331320551</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2533422072006257</v>
+        <v>0.253062739576441</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2337107690162905</v>
+        <v>0.2351401101657711</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2488745456813427</v>
+        <v>0.2469155401209624</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2894804510753465</v>
+        <v>0.2895110364960153</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2629585010454973</v>
+        <v>0.262173462863318</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2714329873126566</v>
+        <v>0.2712013133390468</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>82757</v>
+        <v>84009</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>91346</v>
+        <v>91827</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>185322</v>
+        <v>187270</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>124833</v>
+        <v>124429</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>126437</v>
+        <v>126088</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>239891</v>
+        <v>240339</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>101644</v>
+        <v>99858</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>74797</v>
+        <v>73371</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>183972</v>
+        <v>184592</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>146200</v>
+        <v>144522</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>104722</v>
+        <v>103691</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>239208</v>
+        <v>235448</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>82227</v>
+        <v>83399</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>32423</v>
+        <v>30808</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>119680</v>
+        <v>119038</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>118567</v>
+        <v>119814</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>54161</v>
+        <v>52437</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>163817</v>
+        <v>161639</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>229554</v>
+        <v>230041</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>207009</v>
+        <v>208337</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>449897</v>
+        <v>452652</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>299249</v>
+        <v>298717</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>255309</v>
+        <v>253878</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>535683</v>
+        <v>535818</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>132357</v>
+        <v>134363</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>147304</v>
+        <v>146751</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>293667</v>
+        <v>292847</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>180910</v>
+        <v>183145</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>187169</v>
+        <v>189556</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>356260</v>
+        <v>358462</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>165799</v>
+        <v>167445</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>242101</v>
+        <v>240302</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>418993</v>
+        <v>420617</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>203157</v>
+        <v>204669</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>302224</v>
+        <v>299880</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>499840</v>
+        <v>498069</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>872002</v>
+        <v>871040</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>849340</v>
+        <v>854534</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1761071</v>
+        <v>1747209</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>996390</v>
+        <v>996495</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>955630</v>
+        <v>952777</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1920698</v>
+        <v>1919058</v>
       </c>
     </row>
     <row r="32">
